--- a/src/main/resources/output.xlsx
+++ b/src/main/resources/output.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Browser</t>
   </si>
@@ -124,9 +124,6 @@
     <t>checkcontent</t>
   </si>
   <si>
-    <t>+praveen</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
@@ -144,6 +141,21 @@
   <si>
     <t>SuperAdmin</t>
   </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Not ready</t>
+  </si>
+  <si>
+    <t>Elements entered</t>
+  </si>
+  <si>
+    <t>0 sec(s)</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="#,###"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -334,14 +346,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="30"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="55"/>
       <name val="Verdana"/>
@@ -469,7 +473,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -548,23 +552,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1112,13 +1113,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="11.5703125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1144,10 +1145,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1249,27 +1256,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5703125" style="15"/>
+    <col min="1" max="1" width="19.7109375" style="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" style="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.140625" style="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48.28515625" style="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5703125" style="15" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.85546875" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="32.140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="11.5703125" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1335,7 +1342,9 @@
       <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
       <c r="K2" s="21"/>
       <c r="L2" s="18"/>
       <c r="M2" s="27"/>
@@ -1352,18 +1361,29 @@
         <v>25</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="30"/>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
@@ -1376,16 +1396,25 @@
         <v>28</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.2">
@@ -1399,7 +1428,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>22</v>
@@ -1408,6 +1437,9 @@
       <c r="I5" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
@@ -1428,6 +1460,9 @@
       <c r="I6" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
@@ -1445,44 +1480,44 @@
       <c r="E7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="I7" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="15"/>
-      <c r="M8" s="31"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="H9" s="15"/>
-      <c r="M9" s="31"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="H10" s="15"/>
-      <c r="M10" s="31"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="H11" s="15"/>
-      <c r="M11" s="31"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="H12" s="15"/>
-      <c r="M12" s="31"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="H13" s="15"/>
-      <c r="M13" s="31"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:256" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
@@ -1491,28 +1526,28 @@
       <c r="K14" s="21"/>
       <c r="L14" s="18"/>
       <c r="M14" s="27"/>
-      <c r="N14" s="32"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="32"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="38"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
@@ -1761,16 +1796,16 @@
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="33"/>
+      <c r="E17" s="32"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
@@ -2019,16 +2054,16 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="32"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
@@ -2277,16 +2312,16 @@
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="33"/>
+      <c r="E19" s="32"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="37"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
@@ -2532,24 +2567,24 @@
     </row>
     <row r="20" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="33"/>
+      <c r="E21" s="32"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="38"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
@@ -2803,11 +2838,11 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="39"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="38"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
@@ -3061,11 +3096,11 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="39"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="38"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
@@ -3319,11 +3354,11 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" s="35"/>
+      <c r="J24" s="34"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="39"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="38"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
@@ -3577,11 +3612,11 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="35"/>
+      <c r="J25" s="34"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="39"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="38"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
@@ -3835,11 +3870,11 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" s="35"/>
+      <c r="J26" s="34"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="39"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="38"/>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
@@ -4093,11 +4128,11 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="34"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="39"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="38"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
@@ -4346,7 +4381,7 @@
     </row>
     <row r="29" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
@@ -4374,7 +4409,7 @@
       <c r="A38" s="15"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E45" s="40"/>
+      <c r="E45" s="39"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
@@ -4393,44 +4428,44 @@
       <c r="K52" s="21"/>
       <c r="L52" s="18"/>
       <c r="M52" s="27"/>
-      <c r="N52" s="32"/>
+      <c r="N52" s="31"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E53" s="40"/>
+      <c r="E53" s="39"/>
       <c r="H53" s="15"/>
-      <c r="J53" s="41"/>
-      <c r="M53" s="31"/>
+      <c r="J53" s="40"/>
+      <c r="M53" s="30"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H54" s="15"/>
-      <c r="J54" s="41"/>
-      <c r="M54" s="31"/>
+      <c r="J54" s="40"/>
+      <c r="M54" s="30"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E55" s="40"/>
+      <c r="E55" s="39"/>
       <c r="H55" s="15"/>
-      <c r="J55" s="41"/>
-      <c r="M55" s="31"/>
+      <c r="J55" s="40"/>
+      <c r="M55" s="30"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E56" s="40"/>
+      <c r="E56" s="39"/>
       <c r="H56" s="15"/>
-      <c r="J56" s="41"/>
-      <c r="M56" s="31"/>
+      <c r="J56" s="40"/>
+      <c r="M56" s="30"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H57" s="15"/>
-      <c r="J57" s="41"/>
-      <c r="M57" s="31"/>
+      <c r="J57" s="40"/>
+      <c r="M57" s="30"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E58" s="40"/>
+      <c r="E58" s="39"/>
       <c r="H58" s="15"/>
-      <c r="J58" s="41"/>
-      <c r="M58" s="31"/>
+      <c r="J58" s="40"/>
+      <c r="M58" s="30"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E59" s="40"/>
+      <c r="E59" s="39"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/src/main/resources/output.xlsx
+++ b/src/main/resources/output.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dashd\workspace\com.dsp.keywordDriven\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="246" activeTab="1"/>
+    <workbookView tabRatio="246" windowHeight="8190" windowWidth="16380" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="configuration" sheetId="1" r:id="rId1"/>
-    <sheet name="objects" sheetId="2" r:id="rId2"/>
+    <sheet name="configuration" r:id="rId1" sheetId="1"/>
+    <sheet name="objects" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Browser</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>800*900</t>
-  </si>
-  <si>
     <t>Testcase id</t>
   </si>
   <si>
@@ -109,18 +106,6 @@
     <t>Enter password</t>
   </si>
   <si>
-    <t>Sign-in button</t>
-  </si>
-  <si>
-    <t>.//*[@id='signIn']</t>
-  </si>
-  <si>
-    <t>Check content</t>
-  </si>
-  <si>
-    <t>.//*[@id='gb']/div[1]/div[1]/div[1]/div/span</t>
-  </si>
-  <si>
     <t>checkcontent</t>
   </si>
   <si>
@@ -142,6 +127,27 @@
     <t>SuperAdmin</t>
   </si>
   <si>
+    <t>Log-in button</t>
+  </si>
+  <si>
+    <t>Log-out button</t>
+  </si>
+  <si>
+    <t>//a[@href='/dsp/logout.jsp']</t>
+  </si>
+  <si>
+    <t>Check Dashboard</t>
+  </si>
+  <si>
+    <t>//a[@href='#tabs-1' and text()='DashBoard']</t>
+  </si>
+  <si>
+    <t>DashBoard1</t>
+  </si>
+  <si>
+    <t>2000*1000</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
@@ -155,6 +161,27 @@
   </si>
   <si>
     <t>0 sec(s)</t>
+  </si>
+  <si>
+    <t>Element clicked</t>
+  </si>
+  <si>
+    <t>-45 sec(s)</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>DashBoard</t>
+  </si>
+  <si>
+    <t>Contents mismatched</t>
+  </si>
+  <si>
+    <t>C:\Users\dashd\workspace\com.dsp.keywordDriven/src/main/resources/screenshots/5_19_11_2017_03_36_04.png</t>
+  </si>
+  <si>
+    <t>2 sec(s)</t>
   </si>
 </sst>
 </file>
@@ -165,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="#,###"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -346,6 +373,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="30"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="55"/>
       <name val="Verdana"/>
@@ -416,166 +451,169 @@
     </border>
   </borders>
   <cellStyleXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="42">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="fail status" xfId="1"/>
     <cellStyle name="nil status" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Pass" xfId="3"/>
     <cellStyle name="pass status" xfId="4"/>
     <cellStyle name="Untitled1" xfId="5"/>
@@ -677,7 +715,7 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -762,10 +800,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -800,7 +838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -835,7 +873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,21 +967,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -960,7 +998,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1020,27 +1058,27 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:rect b="0" l="0" r="0" t="0"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="9" mc:Ignorable="a14" val="090000"/>
         </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
+          <a:headEnd len="med" type="none" w="med"/>
+          <a:tailEnd len="med" type="none" w="med"/>
         </a:ln>
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                <a:outerShdw algn="ctr" dir="2700000" dist="35921" rotWithShape="0">
                   <a:srgbClr val="808080"/>
                 </a:outerShdw>
               </a:effectLst>
@@ -1048,7 +1086,7 @@
           </a:ext>
         </a:extLst>
       </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:bodyPr bIns="0" lIns="18288" rIns="0" tIns="0" upright="1" vertOverflow="clip" wrap="square"/>
       <a:lstStyle/>
     </a:spDef>
     <a:lnDef>
@@ -1062,27 +1100,27 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:rect b="0" l="0" r="0" t="0"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="9" mc:Ignorable="a14" val="090000"/>
         </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
+          <a:headEnd len="med" type="none" w="med"/>
+          <a:tailEnd len="med" type="none" w="med"/>
         </a:ln>
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                <a:outerShdw algn="ctr" dir="2700000" dist="35921" rotWithShape="0">
                   <a:srgbClr val="808080"/>
                 </a:outerShdw>
               </a:effectLst>
@@ -1090,39 +1128,39 @@
           </a:ext>
         </a:extLst>
       </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:bodyPr bIns="0" lIns="18288" rIns="0" tIns="0" upright="1" vertOverflow="clip" wrap="square"/>
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="11.5703125" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="54.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="19.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1145,16 +1183,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1220,31 +1258,31 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="D2:D65536">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="7" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="6" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E65536">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="5" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="5" stopIfTrue="1" type="cellIs">
       <formula>301</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule operator="equal" priority="6" stopIfTrue="1" type="cellIs">
       <formula>"23,56"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" useFirstPageNumber="1" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1253,97 +1291,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.140625" style="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48.28515625" style="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.85546875" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="32.140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="11.5703125" style="15" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="14" width="19.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="15" width="24.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="15" width="33.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="15" width="48.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="15" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="15" width="12.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="20.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="16" width="16.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="14" width="28.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="17" width="8.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="13.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="18" width="13.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="19" width="8.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="20" width="32.140625" collapsed="true"/>
+    <col min="15" max="16384" style="15" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="25.5" r="1" s="22" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:256" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row customFormat="1" r="2" s="22" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="18"/>
@@ -1355,34 +1393,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:256" x14ac:dyDescent="0.2">
@@ -1390,31 +1425,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.2">
@@ -1422,23 +1457,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="29"/>
       <c r="I5" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.2">
@@ -1446,22 +1487,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>22</v>
+      <c r="G6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.2">
@@ -1469,85 +1525,91 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H8" s="15"/>
-      <c r="M8" s="30"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="H9" s="15"/>
-      <c r="M9" s="30"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="H10" s="15"/>
-      <c r="M10" s="30"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="H11" s="15"/>
-      <c r="M11" s="30"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="H12" s="15"/>
-      <c r="M12" s="30"/>
+      <c r="M12" s="31"/>
     </row>
     <row r="13" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="H13" s="15"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:256" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="31"/>
+    </row>
+    <row customFormat="1" r="14" s="22" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="I14" s="21"/>
       <c r="J14" s="24"/>
       <c r="K14" s="21"/>
       <c r="L14" s="18"/>
       <c r="M14" s="27"/>
-      <c r="N14" s="31"/>
+      <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="33"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="38"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
@@ -1796,16 +1858,16 @@
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="33"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
@@ -2054,16 +2116,16 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="33"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
@@ -2312,16 +2374,16 @@
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="32"/>
+      <c r="E19" s="33"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
@@ -2567,24 +2629,24 @@
     </row>
     <row r="20" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="32"/>
+      <c r="E21" s="33"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="37"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="38"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
@@ -2838,11 +2900,11 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" s="34"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="38"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="39"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
@@ -3096,11 +3158,11 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" s="34"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="38"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="39"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
@@ -3354,11 +3416,11 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" s="34"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="38"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="39"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
@@ -3612,11 +3674,11 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="34"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="38"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="39"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
@@ -3870,11 +3932,11 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" s="34"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="38"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="39"/>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
@@ -4128,11 +4190,11 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" s="34"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="38"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="39"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
@@ -4381,7 +4443,7 @@
     </row>
     <row r="29" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="E29" s="39"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
@@ -4409,7 +4471,7 @@
       <c r="A38" s="15"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E45" s="39"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
@@ -4417,7 +4479,7 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
     </row>
-    <row r="52" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="52" s="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -4428,71 +4490,71 @@
       <c r="K52" s="21"/>
       <c r="L52" s="18"/>
       <c r="M52" s="27"/>
-      <c r="N52" s="31"/>
+      <c r="N52" s="32"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E53" s="39"/>
+      <c r="E53" s="40"/>
       <c r="H53" s="15"/>
-      <c r="J53" s="40"/>
-      <c r="M53" s="30"/>
+      <c r="J53" s="41"/>
+      <c r="M53" s="31"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H54" s="15"/>
-      <c r="J54" s="40"/>
-      <c r="M54" s="30"/>
+      <c r="J54" s="41"/>
+      <c r="M54" s="31"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E55" s="39"/>
+      <c r="E55" s="40"/>
       <c r="H55" s="15"/>
-      <c r="J55" s="40"/>
-      <c r="M55" s="30"/>
+      <c r="J55" s="41"/>
+      <c r="M55" s="31"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E56" s="39"/>
+      <c r="E56" s="40"/>
       <c r="H56" s="15"/>
-      <c r="J56" s="40"/>
-      <c r="M56" s="30"/>
+      <c r="J56" s="41"/>
+      <c r="M56" s="31"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H57" s="15"/>
-      <c r="J57" s="40"/>
-      <c r="M57" s="30"/>
+      <c r="J57" s="41"/>
+      <c r="M57" s="31"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E58" s="39"/>
+      <c r="E58" s="40"/>
       <c r="H58" s="15"/>
-      <c r="J58" s="40"/>
-      <c r="M58" s="30"/>
+      <c r="J58" s="41"/>
+      <c r="M58" s="31"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E59" s="39"/>
+      <c r="E59" s="40"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="J1:J15 J20 J28:J52 J59:J65534">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
       <formula>"pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
       <formula>"element not found"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M15 M20 M28:M65534 N14 N52">
-    <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule operator="equal" priority="4" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule operator="equal" priority="5" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule operator="equal" priority="6" stopIfTrue="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
